--- a/氣象性能評估工具V2/data/obs/backup/2016-06-24_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-24_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-24 00:00:00</t>
+    <t>2016-06-24-00</t>
   </si>
   <si>
     <t>22.6</t>
@@ -154,7 +154,7 @@
     <t>26.9</t>
   </si>
   <si>
-    <t>2016-06-24 01:00:00</t>
+    <t>2016-06-24-01</t>
   </si>
   <si>
     <t>22.8</t>
@@ -193,7 +193,7 @@
     <t>28.9</t>
   </si>
   <si>
-    <t>2016-06-24 02:00:00</t>
+    <t>2016-06-24-02</t>
   </si>
   <si>
     <t>24.6</t>
@@ -223,7 +223,7 @@
     <t>26.1</t>
   </si>
   <si>
-    <t>2016-06-24 03:00:00</t>
+    <t>2016-06-24-03</t>
   </si>
   <si>
     <t>24.9</t>
@@ -253,7 +253,7 @@
     <t>7.0</t>
   </si>
   <si>
-    <t>2016-06-24 04:00:00</t>
+    <t>2016-06-24-04</t>
   </si>
   <si>
     <t>22.3</t>
@@ -277,7 +277,7 @@
     <t>7.4</t>
   </si>
   <si>
-    <t>2016-06-24 05:00:00</t>
+    <t>2016-06-24-05</t>
   </si>
   <si>
     <t>23.1</t>
@@ -295,7 +295,7 @@
     <t>8.1</t>
   </si>
   <si>
-    <t>2016-06-24 06:00:00</t>
+    <t>2016-06-24-06</t>
   </si>
   <si>
     <t>24.1</t>
@@ -331,7 +331,7 @@
     <t>30.5</t>
   </si>
   <si>
-    <t>2016-06-24 07:00:00</t>
+    <t>2016-06-24-07</t>
   </si>
   <si>
     <t>25.3</t>
@@ -385,7 +385,7 @@
     <t>28.4</t>
   </si>
   <si>
-    <t>2016-06-24 08:00:00</t>
+    <t>2016-06-24-08</t>
   </si>
   <si>
     <t>33.2</t>
@@ -421,7 +421,7 @@
     <t>31.8</t>
   </si>
   <si>
-    <t>2016-06-24 09:00:00</t>
+    <t>2016-06-24-09</t>
   </si>
   <si>
     <t>34.6</t>
@@ -457,7 +457,7 @@
     <t>32.9</t>
   </si>
   <si>
-    <t>2016-06-24 10:00:00</t>
+    <t>2016-06-24-10</t>
   </si>
   <si>
     <t>29.0</t>
@@ -496,7 +496,7 @@
     <t>32.8</t>
   </si>
   <si>
-    <t>2016-06-24 11:00:00</t>
+    <t>2016-06-24-11</t>
   </si>
   <si>
     <t>35.6</t>
@@ -517,7 +517,7 @@
     <t>16.6</t>
   </si>
   <si>
-    <t>2016-06-24 12:00:00</t>
+    <t>2016-06-24-12</t>
   </si>
   <si>
     <t>36.6</t>
@@ -544,7 +544,7 @@
     <t>32.4</t>
   </si>
   <si>
-    <t>2016-06-24 13:00:00</t>
+    <t>2016-06-24-13</t>
   </si>
   <si>
     <t>29.7</t>
@@ -559,7 +559,7 @@
     <t>30.6</t>
   </si>
   <si>
-    <t>2016-06-24 14:00:00</t>
+    <t>2016-06-24-14</t>
   </si>
   <si>
     <t>25.0</t>
@@ -574,7 +574,7 @@
     <t>33.9</t>
   </si>
   <si>
-    <t>2016-06-24 15:00:00</t>
+    <t>2016-06-24-15</t>
   </si>
   <si>
     <t>25.5</t>
@@ -589,7 +589,7 @@
     <t>9.9</t>
   </si>
   <si>
-    <t>2016-06-24 16:00:00</t>
+    <t>2016-06-24-16</t>
   </si>
   <si>
     <t>26.0</t>
@@ -601,7 +601,7 @@
     <t>8.6</t>
   </si>
   <si>
-    <t>2016-06-24 17:00:00</t>
+    <t>2016-06-24-17</t>
   </si>
   <si>
     <t>22.1</t>
@@ -613,7 +613,7 @@
     <t>8.0</t>
   </si>
   <si>
-    <t>2016-06-24 18:00:00</t>
+    <t>2016-06-24-18</t>
   </si>
   <si>
     <t>20.0</t>
@@ -625,7 +625,7 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>2016-06-24 19:00:00</t>
+    <t>2016-06-24-19</t>
   </si>
   <si>
     <t>23.0</t>
@@ -637,7 +637,7 @@
     <t>14.7</t>
   </si>
   <si>
-    <t>2016-06-24 20:00:00</t>
+    <t>2016-06-24-20</t>
   </si>
   <si>
     <t>24.5</t>
@@ -646,7 +646,7 @@
     <t>6.9</t>
   </si>
   <si>
-    <t>2016-06-24 21:00:00</t>
+    <t>2016-06-24-21</t>
   </si>
   <si>
     <t>25.7</t>
@@ -658,7 +658,7 @@
     <t>6.6</t>
   </si>
   <si>
-    <t>2016-06-24 22:00:00</t>
+    <t>2016-06-24-22</t>
   </si>
   <si>
     <t>21.5</t>
@@ -667,7 +667,7 @@
     <t>13.1</t>
   </si>
   <si>
-    <t>2016-06-24 23:00:00</t>
+    <t>2016-06-24-23</t>
   </si>
   <si>
     <t>21.9</t>
